--- a/biology/Médecine/Maladie_de_Mc_Ardle/Maladie_de_Mc_Ardle.xlsx
+++ b/biology/Médecine/Maladie_de_Mc_Ardle/Maladie_de_Mc_Ardle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Maladie de Mc Ardle ou glycogénose de type 5 est une myopathie métabolique d'origine génétique en rapport avec une anomalie de fonctionnement de la phosphorylase musculaire responsable d'un trouble de la glycogénolyse musculaire. Autrement dit, le glycogène stocké dans les muscles, ne peut pas être transformé en glucose indispensable à tout effort. Le taux de lactates sanguins n'augmente pas après l'effort (normalement de trois à cinq fois). En revanche, le taux de CPK musculaire est élevé. 
@@ -516,12 +528,14 @@
           <t>Sources et liens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Page spécifique sur Orphanet
 Maladie de McArdle AFG (Association Française des Glycogénoses)
-(en) Joaquin Arenas, Miguel A Martin, Antonio L Andreu, Glycogen Storage Disease Type V In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:232600  [2]
+(en) Joaquin Arenas, Miguel A Martin, Antonio L Andreu, Glycogen Storage Disease Type V In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:232600  
  Portail du handicap   Portail de la médecine                    </t>
         </is>
       </c>
